--- a/results/mp/logistic/corona/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,54 +58,48 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -121,25 +115,25 @@
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +634,13 @@
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3565891472868217</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.2416107382550336</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8276762402088773</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L9">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="M9">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -844,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>307</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -862,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -870,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7804878048780488</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L11">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,25 +916,25 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7659574468085106</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
+        <v>124</v>
+      </c>
+      <c r="M13">
+        <v>124</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>36</v>
-      </c>
-      <c r="M13">
-        <v>36</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7394366197183099</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -966,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -974,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7375</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +994,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.675</v>
+        <v>0.64</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1096,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1104,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1124,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,25 +1150,25 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6205882352941177</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L23">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="M23">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1208,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L24">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="M24">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1226,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1234,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5815899581589958</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L25">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5531914893617021</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5076923076923077</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,25 +1306,25 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1338,13 +1332,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4044943820224719</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1357,58 +1351,6 @@
       </c>
       <c r="Q29">
         <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="L30">
-        <v>28</v>
-      </c>
-      <c r="M30">
-        <v>28</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L31">
-        <v>25</v>
-      </c>
-      <c r="M31">
-        <v>25</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
